--- a/excel/1wk/three_line_alerts_1wk_backup.xlsx
+++ b/excel/1wk/three_line_alerts_1wk_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1052"/>
+  <dimension ref="A1:R1094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63589,6 +63589,2526 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B1053" s="2" t="n">
+        <v>36108</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>149</v>
+      </c>
+      <c r="D1053" s="2" t="n">
+        <v>35184</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>2.323776006698608</v>
+      </c>
+      <c r="G1053" s="2" t="n">
+        <v>35940</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>125</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>2.881481885910034</v>
+      </c>
+      <c r="J1053" s="2" t="n">
+        <v>36031</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>138</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>2.960490942001343</v>
+      </c>
+      <c r="M1053" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1053" t="n">
+        <v>0.005163943326031725</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>2.235988970156069</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1053" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B1054" s="2" t="n">
+        <v>37473</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>344</v>
+      </c>
+      <c r="D1054" s="2" t="n">
+        <v>36507</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>206</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>12.88888835906982</v>
+      </c>
+      <c r="G1054" s="2" t="n">
+        <v>37158</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>299</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>12.74444389343262</v>
+      </c>
+      <c r="J1054" s="2" t="n">
+        <v>37396</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>333</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>12.71666622161865</v>
+      </c>
+      <c r="M1054" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1054" t="n">
+        <v>-0.001553166297174193</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>13.2088406162877</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1054" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B1055" s="2" t="n">
+        <v>42184</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>730</v>
+      </c>
+      <c r="D1055" s="2" t="n">
+        <v>41309</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>605</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>348.6000061035156</v>
+      </c>
+      <c r="G1055" s="2" t="n">
+        <v>41421</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>621</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>403.6749877929688</v>
+      </c>
+      <c r="J1055" s="2" t="n">
+        <v>42107</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>719</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>737.6500244140625</v>
+      </c>
+      <c r="M1055" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1055" t="n">
+        <v>3.442186355590824</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>-1733.922739028933</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1055" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B1056" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>931</v>
+      </c>
+      <c r="D1056" s="2" t="n">
+        <v>44116</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>832</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>78.09999847412109</v>
+      </c>
+      <c r="G1056" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>894</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>119.0999984741211</v>
+      </c>
+      <c r="J1056" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>920</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>134.9499969482422</v>
+      </c>
+      <c r="M1056" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1056" t="n">
+        <v>0.6612903225806451</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>-472.0935499129756</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1056" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>JSWSTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B1057" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>1099</v>
+      </c>
+      <c r="D1057" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>1036</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>649.0499877929688</v>
+      </c>
+      <c r="G1057" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>1069</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>723</v>
+      </c>
+      <c r="J1057" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>1088</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>761.75</v>
+      </c>
+      <c r="M1057" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1057" t="n">
+        <v>2.240909460819129</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>-1672.532213615649</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1057" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B1058" s="2" t="n">
+        <v>42485</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D1058" s="2" t="n">
+        <v>41239</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>882</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>165.6666717529297</v>
+      </c>
+      <c r="G1058" s="2" t="n">
+        <v>41512</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>921</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>156.1333312988281</v>
+      </c>
+      <c r="J1058" s="2" t="n">
+        <v>42408</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>1049</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>125.1666641235352</v>
+      </c>
+      <c r="M1058" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1058" t="n">
+        <v>-0.2444446270282459</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>381.2668327918426</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1058" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B1059" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>1143</v>
+      </c>
+      <c r="D1059" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>1074</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>684.25</v>
+      </c>
+      <c r="G1059" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>1113</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>528.1500244140625</v>
+      </c>
+      <c r="J1059" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>1132</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>447.7999877929688</v>
+      </c>
+      <c r="M1059" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1059" t="n">
+        <v>-4.0025634765625</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>4983.003173828125</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1059" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>SHRIRAMFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1060" s="2" t="n">
+        <v>39566</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>304</v>
+      </c>
+      <c r="D1060" s="2" t="n">
+        <v>38418</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>140</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>63.13808059692383</v>
+      </c>
+      <c r="G1060" s="2" t="n">
+        <v>38628</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>170</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>141.7683715820312</v>
+      </c>
+      <c r="J1060" s="2" t="n">
+        <v>39489</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>293</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>460.1869506835938</v>
+      </c>
+      <c r="M1060" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1060" t="n">
+        <v>2.621009699503579</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>-303.8032773335772</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1060" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B1061" s="2" t="n">
+        <v>37088</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>272</v>
+      </c>
+      <c r="D1061" s="2" t="n">
+        <v>35821</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>91</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>1.602308034896851</v>
+      </c>
+      <c r="G1061" s="2" t="n">
+        <v>37004</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>260</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="J1061" s="2" t="n">
+        <v>37011</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>261</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="M1061" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1061" t="n">
+        <v>0.002871816680276177</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>1.340972716991719</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1061" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>TORNTPHARM.NS</t>
+        </is>
+      </c>
+      <c r="B1062" s="2" t="n">
+        <v>39300</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>266</v>
+      </c>
+      <c r="D1062" s="2" t="n">
+        <v>38418</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>140</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="G1062" s="2" t="n">
+        <v>39041</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>229</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>40.25</v>
+      </c>
+      <c r="J1062" s="2" t="n">
+        <v>39223</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>255</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>45</v>
+      </c>
+      <c r="M1062" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1062" t="n">
+        <v>0.1685393258426966</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>1.654494382022474</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1062" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B1063" s="2" t="n">
+        <v>37025</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>280</v>
+      </c>
+      <c r="D1063" s="2" t="n">
+        <v>35891</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>118</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>29.10761642456055</v>
+      </c>
+      <c r="G1063" s="2" t="n">
+        <v>36353</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>184</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>27.87160491943359</v>
+      </c>
+      <c r="J1063" s="2" t="n">
+        <v>36948</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>269</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>26.03174018859863</v>
+      </c>
+      <c r="M1063" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1063" t="n">
+        <v>-0.01872744704737819</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>31.31745517615118</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1063" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B1064" s="2" t="n">
+        <v>37025</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>280</v>
+      </c>
+      <c r="D1064" s="2" t="n">
+        <v>35891</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>118</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>29.10761642456055</v>
+      </c>
+      <c r="G1064" s="2" t="n">
+        <v>36535</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>210</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>27.34795188903809</v>
+      </c>
+      <c r="J1064" s="2" t="n">
+        <v>36948</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>269</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>26.03174018859863</v>
+      </c>
+      <c r="M1064" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1064" t="n">
+        <v>-0.01912678842959197</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>31.3645774592524</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1064" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>MARICO.NS</t>
+        </is>
+      </c>
+      <c r="B1065" s="2" t="n">
+        <v>37102</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>274</v>
+      </c>
+      <c r="D1065" s="2" t="n">
+        <v>36591</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>201</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>1.7501540184021</v>
+      </c>
+      <c r="G1065" s="2" t="n">
+        <v>37018</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>262</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="J1065" s="2" t="n">
+        <v>37025</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>263</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>2.087645053863525</v>
+      </c>
+      <c r="M1065" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1065" t="n">
+        <v>0.00553263992559713</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0.6380933933570769</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1065" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>AUBANK.NS</t>
+        </is>
+      </c>
+      <c r="B1066" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>318</v>
+      </c>
+      <c r="D1066" s="2" t="n">
+        <v>44431</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>215</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>694.9249877929688</v>
+      </c>
+      <c r="G1066" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>249</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>732.9749755859375</v>
+      </c>
+      <c r="J1066" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>307</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>795</v>
+      </c>
+      <c r="M1066" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1066" t="n">
+        <v>1.119117288028493</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>454.3147708668428</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1066" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>BEL.NS</t>
+        </is>
+      </c>
+      <c r="B1067" s="2" t="n">
+        <v>41043</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>515</v>
+      </c>
+      <c r="D1067" s="2" t="n">
+        <v>40378</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>420</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>19.1393928527832</v>
+      </c>
+      <c r="G1067" s="2" t="n">
+        <v>40749</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>473</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>17.99090957641602</v>
+      </c>
+      <c r="J1067" s="2" t="n">
+        <v>40966</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>504</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>17.27272605895996</v>
+      </c>
+      <c r="M1067" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1067" t="n">
+        <v>-0.02166949578051284</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>28.24058108059859</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1067" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>MUTHOOTFIN.NS</t>
+        </is>
+      </c>
+      <c r="B1068" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>630</v>
+      </c>
+      <c r="D1068" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>509</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>1090</v>
+      </c>
+      <c r="G1068" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>595</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>950.2000122070312</v>
+      </c>
+      <c r="J1068" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>619</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>911.25</v>
+      </c>
+      <c r="M1068" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1068" t="n">
+        <v>-1.625581253406613</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>1917.420857983966</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1068" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>GAIL.NS</t>
+        </is>
+      </c>
+      <c r="B1069" s="2" t="n">
+        <v>40623</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>729</v>
+      </c>
+      <c r="D1069" s="2" t="n">
+        <v>39699</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>597</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>55.92502593994141</v>
+      </c>
+      <c r="G1069" s="2" t="n">
+        <v>40469</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>707</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>97.54692077636719</v>
+      </c>
+      <c r="J1069" s="2" t="n">
+        <v>40546</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>718</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>100.8281784057617</v>
+      </c>
+      <c r="M1069" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1069" t="n">
+        <v>0.3783808621493252</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>-169.9683487632057</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1069" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>AMBUJACEM.NS</t>
+        </is>
+      </c>
+      <c r="B1070" s="2" t="n">
+        <v>43934</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>928</v>
+      </c>
+      <c r="D1070" s="2" t="n">
+        <v>43346</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>844</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>245.3999938964844</v>
+      </c>
+      <c r="G1070" s="2" t="n">
+        <v>43731</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>899</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>225</v>
+      </c>
+      <c r="J1070" s="2" t="n">
+        <v>43857</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>917</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>220.25</v>
+      </c>
+      <c r="M1070" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1070" t="n">
+        <v>-0.3709089799360801</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>558.4471729625359</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1070" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B1071" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D1071" s="2" t="n">
+        <v>44095</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>951</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>333.75</v>
+      </c>
+      <c r="G1071" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>1041</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>669.9500122070312</v>
+      </c>
+      <c r="J1071" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>1074</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>796</v>
+      </c>
+      <c r="M1071" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1071" t="n">
+        <v>3.735555691189236</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>-3218.763462320964</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1071" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B1072" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>1110</v>
+      </c>
+      <c r="D1072" s="2" t="n">
+        <v>44494</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>867</v>
+      </c>
+      <c r="G1072" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>1065</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>958.2000122070312</v>
+      </c>
+      <c r="J1072" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>1099</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>1008.700012207031</v>
+      </c>
+      <c r="M1072" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1072" t="n">
+        <v>1.600000214158443</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>-745.8002158717106</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1072" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B1073" s="2" t="n">
+        <v>43024</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>1137</v>
+      </c>
+      <c r="D1073" s="2" t="n">
+        <v>42030</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>995</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>336</v>
+      </c>
+      <c r="G1073" s="2" t="n">
+        <v>42870</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>1115</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>315.2999877929688</v>
+      </c>
+      <c r="J1073" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>1126</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>314.7999877929688</v>
+      </c>
+      <c r="M1073" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1073" t="n">
+        <v>-0.17250010172526</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>507.6376012166336</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1073" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B1074" s="2" t="n">
+        <v>35877</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>116</v>
+      </c>
+      <c r="D1074" s="2" t="n">
+        <v>35345</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>40</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>3.775000095367432</v>
+      </c>
+      <c r="G1074" s="2" t="n">
+        <v>35793</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>104</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J1074" s="2" t="n">
+        <v>35800</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>105</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M1074" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1074" t="n">
+        <v>0.01132812350988387</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>3.321875154972077</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1074" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B1075" s="2" t="n">
+        <v>38194</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>102</v>
+      </c>
+      <c r="D1075" s="2" t="n">
+        <v>37557</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>355</v>
+      </c>
+      <c r="G1075" s="2" t="n">
+        <v>38103</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>89</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="J1075" s="2" t="n">
+        <v>38117</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>91</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="M1075" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1075" t="n">
+        <v>0.2525642590645025</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>352.2217931502905</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1075" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B1076" s="2" t="n">
+        <v>38194</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>102</v>
+      </c>
+      <c r="D1076" s="2" t="n">
+        <v>37557</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>355</v>
+      </c>
+      <c r="G1076" s="2" t="n">
+        <v>38110</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>90</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="J1076" s="2" t="n">
+        <v>38117</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>91</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="M1076" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1076" t="n">
+        <v>0.2493672431269771</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>352.2569603256033</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1076" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B1077" s="2" t="n">
+        <v>35891</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>118</v>
+      </c>
+      <c r="D1077" s="2" t="n">
+        <v>35569</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>4.474999904632568</v>
+      </c>
+      <c r="G1077" s="2" t="n">
+        <v>35800</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>105</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J1077" s="2" t="n">
+        <v>35814</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>107</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M1077" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1077" t="n">
+        <v>0.0007575786474979285</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>4.420454242012718</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1077" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B1078" s="2" t="n">
+        <v>38201</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>103</v>
+      </c>
+      <c r="D1078" s="2" t="n">
+        <v>37683</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>358</v>
+      </c>
+      <c r="G1078" s="2" t="n">
+        <v>38103</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>89</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="J1078" s="2" t="n">
+        <v>38117</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>91</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="M1078" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1078" t="n">
+        <v>0.2783335367838532</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>349.9283274332683</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1078" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>VEDL.NS</t>
+        </is>
+      </c>
+      <c r="B1079" s="2" t="n">
+        <v>35891</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>118</v>
+      </c>
+      <c r="D1079" s="2" t="n">
+        <v>35569</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>4.474999904632568</v>
+      </c>
+      <c r="G1079" s="2" t="n">
+        <v>35807</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>106</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J1079" s="2" t="n">
+        <v>35814</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>107</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M1079" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1079" t="n">
+        <v>0.0007352969225715188</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>4.422058526207419</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1079" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B1080" s="2" t="n">
+        <v>38201</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>103</v>
+      </c>
+      <c r="D1080" s="2" t="n">
+        <v>37683</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>358</v>
+      </c>
+      <c r="G1080" s="2" t="n">
+        <v>38117</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>91</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="J1080" s="2" t="n">
+        <v>38124</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>92</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>374.7000122070312</v>
+      </c>
+      <c r="M1080" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1080" t="n">
+        <v>0.2693550355972773</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>350.188703967679</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1080" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>PGHH.NS</t>
+        </is>
+      </c>
+      <c r="B1081" s="2" t="n">
+        <v>39804</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>332</v>
+      </c>
+      <c r="D1081" s="2" t="n">
+        <v>38873</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>199</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>694</v>
+      </c>
+      <c r="G1081" s="2" t="n">
+        <v>39391</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>273</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>664.5</v>
+      </c>
+      <c r="J1081" s="2" t="n">
+        <v>39727</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>321</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>640</v>
+      </c>
+      <c r="M1081" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1081" t="n">
+        <v>-0.3986486486486486</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>773.331081081081</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1081" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>PIIND.NS</t>
+        </is>
+      </c>
+      <c r="B1082" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>669</v>
+      </c>
+      <c r="D1082" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>503</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G1082" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>615</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>2868.89990234375</v>
+      </c>
+      <c r="J1082" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>658</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>3220</v>
+      </c>
+      <c r="M1082" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1082" t="n">
+        <v>7.927677699497768</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>-2006.621882847377</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1082" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B1083" s="2" t="n">
+        <v>41141</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>711</v>
+      </c>
+      <c r="D1083" s="2" t="n">
+        <v>40301</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>591</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>620.5999755859375</v>
+      </c>
+      <c r="G1083" s="2" t="n">
+        <v>40896</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>676</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>626.7000122070312</v>
+      </c>
+      <c r="J1083" s="2" t="n">
+        <v>41064</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>700</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>629.9500122070312</v>
+      </c>
+      <c r="M1083" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1083" t="n">
+        <v>0.07176513671875</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>578.1867797851562</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1083" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>SIEMENS.NS</t>
+        </is>
+      </c>
+      <c r="B1084" s="2" t="n">
+        <v>43024</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>980</v>
+      </c>
+      <c r="D1084" s="2" t="n">
+        <v>42072</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>844</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G1084" s="2" t="n">
+        <v>42863</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>957</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>1471.349975585938</v>
+      </c>
+      <c r="J1084" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>969</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>1469.900024414062</v>
+      </c>
+      <c r="M1084" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1084" t="n">
+        <v>-0.253540039062496</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>1713.987792968747</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1084" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>NAUKRI.NS</t>
+        </is>
+      </c>
+      <c r="B1085" s="2" t="n">
+        <v>40539</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>214</v>
+      </c>
+      <c r="D1085" s="2" t="n">
+        <v>39965</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>132</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="G1085" s="2" t="n">
+        <v>40455</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>202</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>390</v>
+      </c>
+      <c r="J1085" s="2" t="n">
+        <v>40462</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>203</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>390</v>
+      </c>
+      <c r="M1085" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1085" t="n">
+        <v>2.678571428571428</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>-151.0714285714286</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1085" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B1086" s="2" t="n">
+        <v>42450</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>421</v>
+      </c>
+      <c r="D1086" s="2" t="n">
+        <v>41827</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>332</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>27.56999969482422</v>
+      </c>
+      <c r="G1086" s="2" t="n">
+        <v>42296</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>399</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="J1086" s="2" t="n">
+        <v>42373</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>410</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="M1086" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1086" t="n">
+        <v>-0.005522372117683122</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>29.40342723789502</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1086" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>ADANIPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B1087" s="2" t="n">
+        <v>43850</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>544</v>
+      </c>
+      <c r="D1087" s="2" t="n">
+        <v>43108</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>438</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>47.79999923706055</v>
+      </c>
+      <c r="G1087" s="2" t="n">
+        <v>43654</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>516</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="J1087" s="2" t="n">
+        <v>43773</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>533</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>73.80000305175781</v>
+      </c>
+      <c r="M1087" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1087" t="n">
+        <v>0.2685897533710186</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>-69.84231273944562</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1087" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>COLPAL.NS</t>
+        </is>
+      </c>
+      <c r="B1088" s="2" t="n">
+        <v>42030</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>656</v>
+      </c>
+      <c r="D1088" s="2" t="n">
+        <v>41057</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>517</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>626</v>
+      </c>
+      <c r="G1088" s="2" t="n">
+        <v>41407</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>567</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="J1088" s="2" t="n">
+        <v>41953</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>645</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="M1088" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1088" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>-950.8499999999999</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1088" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>IRB.NS</t>
+        </is>
+      </c>
+      <c r="B1089" s="2" t="n">
+        <v>43822</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>617</v>
+      </c>
+      <c r="D1089" s="2" t="n">
+        <v>42954</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>493</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>19.51499938964844</v>
+      </c>
+      <c r="G1089" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>556</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>11.73999977111816</v>
+      </c>
+      <c r="J1089" s="2" t="n">
+        <v>43745</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>606</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>5.614999771118164</v>
+      </c>
+      <c r="M1089" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1089" t="n">
+        <v>-0.1234126923576235</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>80.35745672195682</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1089" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B1090" s="2" t="n">
+        <v>40854</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>270</v>
+      </c>
+      <c r="D1090" s="2" t="n">
+        <v>40672</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>244</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>13</v>
+      </c>
+      <c r="G1090" s="2" t="n">
+        <v>40679</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>245</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1090" s="2" t="n">
+        <v>40777</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>259</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>13</v>
+      </c>
+      <c r="M1090" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1090" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>NHPC.NS</t>
+        </is>
+      </c>
+      <c r="B1091" s="2" t="n">
+        <v>43458</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>486</v>
+      </c>
+      <c r="D1091" s="2" t="n">
+        <v>42877</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>403</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>28.70000076293945</v>
+      </c>
+      <c r="G1091" s="2" t="n">
+        <v>43066</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>430</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="J1091" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>475</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>22.10000038146973</v>
+      </c>
+      <c r="M1091" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1091" t="n">
+        <v>-0.09074076899775739</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>65.26853066903567</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1091" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B1092" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>666</v>
+      </c>
+      <c r="D1092" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>561</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>28.70000076293945</v>
+      </c>
+      <c r="G1092" s="2" t="n">
+        <v>44487</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>596</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="J1092" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>655</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>42.34999847412109</v>
+      </c>
+      <c r="M1092" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1092" t="n">
+        <v>0.1442856924874443</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>-52.2442727225168</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1092" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B1093" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>682</v>
+      </c>
+      <c r="D1093" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>666</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="G1093" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>669</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="J1093" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>671</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="M1093" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1093" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>SJVN.NS</t>
+        </is>
+      </c>
+      <c r="B1094" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>682</v>
+      </c>
+      <c r="D1094" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>666</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="G1094" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>670</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="J1094" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>671</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="M1094" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>30.39999961853027</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1094" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/three_line_alerts_1wk_backup.xlsx
+++ b/excel/1wk/three_line_alerts_1wk_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1094"/>
+  <dimension ref="A1:R1097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66109,6 +66109,186 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B1095" s="2" t="n">
+        <v>39531</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>299</v>
+      </c>
+      <c r="D1095" s="2" t="n">
+        <v>38845</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>201</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>104.2333297729492</v>
+      </c>
+      <c r="G1095" s="2" t="n">
+        <v>39342</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>272</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>135.3333282470703</v>
+      </c>
+      <c r="J1095" s="2" t="n">
+        <v>39454</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>288</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>141.6666717529297</v>
+      </c>
+      <c r="M1095" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N1095" t="n">
+        <v>0.4380281475228325</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>16.18967212085988</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1095" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>ZYDUSLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B1096" s="2" t="n">
+        <v>39545</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>415</v>
+      </c>
+      <c r="D1096" s="2" t="n">
+        <v>38985</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>335</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>38.8015022277832</v>
+      </c>
+      <c r="G1096" s="2" t="n">
+        <v>39160</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>360</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>33.77831649780273</v>
+      </c>
+      <c r="J1096" s="2" t="n">
+        <v>39468</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>404</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>24.83790397644043</v>
+      </c>
+      <c r="M1096" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1096" t="n">
+        <v>-0.200927429199219</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>106.1121910095216</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1096" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>RIR.BO</t>
+        </is>
+      </c>
+      <c r="B1097" s="2" t="n">
+        <v>40847</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>269</v>
+      </c>
+      <c r="D1097" s="2" t="n">
+        <v>40252</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>184</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G1097" s="2" t="n">
+        <v>40679</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>245</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1097" s="2" t="n">
+        <v>40770</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>258</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>13</v>
+      </c>
+      <c r="M1097" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N1097" t="n">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>10.99180327868852</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1097" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/three_line_alerts_1wk_backup.xlsx
+++ b/excel/1wk/three_line_alerts_1wk_backup.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,287 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>stockname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>alert_date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rowNumber</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>row1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>row2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>value2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>date3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>row3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>value3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>buyORsell</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>window_size</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>percentage_value</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>pivot_line_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1190.599975585938</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>-7.425003051757756</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1398.500061035155</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ADANIENSOL.NS</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>686</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>915.2999877929688</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>11.46499938964844</v>
+      </c>
+      <c r="O3" t="n">
+        <v>571.3500061035156</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TATATECH.NS</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1020</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>